--- a/Milestone 4/Milestone 02 DH Excel Sheet.xlsx
+++ b/Milestone 4/Milestone 02 DH Excel Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GUC\GUC 9th Semester Engineering\Courses\Robotics EDPT.1009 L002 Tut.T030\Project\Milestone 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GUC\GUC 9th Semester Engineering\Courses\GitHub\Robotics-Project\Milestone 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E354A35-5701-4779-A7F9-57832F19212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536D51F8-7019-42EA-B77E-CE0EB3C8F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5088" yWindow="4992" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DH Parameters" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="13">
-        <v>24.631</v>
+        <v>23.221589999999999</v>
       </c>
       <c r="D4" s="6">
         <v>-182</v>
@@ -789,7 +789,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="6">
-        <v>0</v>
+        <v>-1.4217900000000001</v>
       </c>
       <c r="D6" s="6">
         <v>-105.464</v>
